--- a/doc/ue_fparticlesystemworldmanager.xlsx
+++ b/doc/ue_fparticlesystemworldmanager.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6928F8C-C388-4589-BD3E-388A9753B786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C250AD-6E2F-46CD-B782-2342DFA4C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="UParticleSystemComponent" sheetId="2" r:id="rId2"/>
     <sheet name="FParticleSystemWorldManager-插入" sheetId="3" r:id="rId3"/>
     <sheet name="FParticleSystemWorldManager-异步" sheetId="4" r:id="rId4"/>
+    <sheet name="FTickFunction" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
   <si>
     <t>FParticleSystemWorldManager：主要收集游戏各个阶段创建的粒子对象，统一进行异步的更新处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +526,90 @@
   </si>
   <si>
     <t>！！！当前阶段的执行，异步依赖于该粒子刷新Task执行完璧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTickFunction::FTickFunction()</t>
+  </si>
+  <si>
+    <t>: TickGroup(TG_PrePhysics)</t>
+  </si>
+  <si>
+    <t>, EndTickGroup(TG_PrePhysics)</t>
+  </si>
+  <si>
+    <t>, bTickEvenWhenPaused(false)</t>
+  </si>
+  <si>
+    <t>, bCanEverTick(false)</t>
+  </si>
+  <si>
+    <t>, bStartWithTickEnabled(false)</t>
+  </si>
+  <si>
+    <t>, bAllowTickOnDedicatedServer(true)</t>
+  </si>
+  <si>
+    <t>, bHighPriority(false)</t>
+  </si>
+  <si>
+    <t>, bRunOnAnyThread(false)</t>
+  </si>
+  <si>
+    <t>, TickState(ETickState::Enabled)</t>
+  </si>
+  <si>
+    <t>, TickInterval(0.f)</t>
+  </si>
+  <si>
+    <t>默认不修改的话，就是TG_PrePhysics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
+  </si>
+  <si>
+    <t>目前只有USkeletalMeshComponent会修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Update the end group and tick priority */</t>
+  </si>
+  <si>
+    <t>const bool bDoLateEnd = CVarAnimationDelaysEndGroup.GetValueOnGameThread() &gt; 0;</t>
+  </si>
+  <si>
+    <t>const bool bRequiresPhysics = EndPhysicsTickFunction.IsTickFunctionRegistered();</t>
+  </si>
+  <si>
+    <t>const ETickingGroup EndTickGroup = bDoLateEnd &amp;&amp; !bRequiresPhysics ? TG_PostPhysics : TG_PrePhysics;</t>
+  </si>
+  <si>
+    <t>if (ThisTickFunction)</t>
+  </si>
+  <si>
+    <t>ThisTickFunction-&gt;EndTickGroup = EndTickGroup;</t>
+  </si>
+  <si>
+    <t>const bool bDoHiPri = CVarHiPriSkinnedMeshesTicks.GetValueOnGameThread() &gt; 0;</t>
+  </si>
+  <si>
+    <t>check(PrimaryComponentTick.bHighPriority == bDoHiPri)</t>
+  </si>
+  <si>
+    <t>CVarAnimationDelaysEndGroup默认就是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndPhysicsTickFunction如果没有注册就是TG_PostPhysics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就是TG_PrePhysics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著有在开启了物理模拟才需要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1691,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF64AC-2EFB-46DE-95BF-9EF4FE3C5349}">
   <dimension ref="B4:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2027,4 +2112,174 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A0C536-D774-4E4B-AC6E-037D14795BBE}">
+  <dimension ref="B6:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_fparticlesystemworldmanager.xlsx
+++ b/doc/ue_fparticlesystemworldmanager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C250AD-6E2F-46CD-B782-2342DFA4C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFCC64F-6CAD-405F-B71D-E52D85E0D131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="FParticleSystemWorldManager-插入" sheetId="3" r:id="rId3"/>
     <sheet name="FParticleSystemWorldManager-异步" sheetId="4" r:id="rId4"/>
     <sheet name="FTickFunction" sheetId="5" r:id="rId5"/>
+    <sheet name="粒子创建" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="191">
   <si>
     <t>FParticleSystemWorldManager：主要收集游戏各个阶段创建的粒子对象，统一进行异步的更新处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +611,30 @@
   </si>
   <si>
     <t>著有在开启了物理模拟才需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子创建，附加到原生对象时，其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Array of PSCs to tick per tick group. These can have their concurrent ticks done in parallel */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FTickList&gt; TickLists_Concurrent;</t>
+  </si>
+  <si>
+    <t>/** Array of PSCs to tick per tick group. These must be done entirely on the GT. */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FTickList&gt; TickLists_GT;</t>
+  </si>
+  <si>
+    <t>根据粒子组件自己是否可以异步执行，插入到不同的列表中（在TICK的时候选择时异步还是同步执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！根据粒子属性，插入到同步列表还是异步列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:Z68"/>
+  <dimension ref="B4:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>84</v>
       </c>
@@ -1250,7 +1275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>11</v>
       </c>
@@ -1258,7 +1283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>85</v>
       </c>
@@ -1272,9 +1297,37 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L68">
         <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1567,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C42D2F2-844F-44F0-BDE1-9C19DA1FA364}">
-  <dimension ref="B5:O48"/>
+  <dimension ref="B5:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1698,22 +1751,22 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>108</v>
       </c>
@@ -1721,47 +1774,50 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="S42" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A0C536-D774-4E4B-AC6E-037D14795BBE}">
   <dimension ref="B6:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -2282,4 +2338,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D26993-4C12-4F73-BC3E-B55DD0150189}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>